--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -211,10 +211,10 @@
     <t>1. Do up data storage and response validation for survey (back-end)</t>
   </si>
   <si>
-    <t>1. Do up data storage for set-up: study conditions etc. (KIV, model after Yihan's); Organize variables and scripts to correspond to conditions and studies</t>
-  </si>
-  <si>
     <t>1. Do up scripts library (back-end) - female, male, neutral, pilot condition</t>
+  </si>
+  <si>
+    <t>2. Do up data storage for set-up: study conditions etc. (KIV, model after Yihan's); Organize variables and scripts to correspond to conditions and studies</t>
   </si>
 </sst>
 </file>
@@ -549,6 +549,63 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,15 +636,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -596,57 +647,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,10 +939,10 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="90" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="67" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="29" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="90" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="67" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="6" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" style="6" customWidth="1"/>
@@ -956,22 +956,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="60" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -983,51 +983,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="66"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="86" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="69"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="81"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1063,7 +1063,7 @@
       <c r="F4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="60" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -1072,7 +1072,7 @@
       <c r="I4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="61" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="14" t="s">
@@ -1107,7 +1107,7 @@
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -1116,7 +1116,7 @@
       <c r="F5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="64" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -1161,16 +1161,16 @@
       <c r="C6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="87"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>58</v>
@@ -1202,19 +1202,19 @@
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="87"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="20" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="30" t="s">
@@ -1243,19 +1243,19 @@
       <c r="C8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="87"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="30" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="30" t="s">
@@ -1284,14 +1284,14 @@
       <c r="C9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="20" t="s">
         <v>52</v>
       </c>
@@ -1319,25 +1319,25 @@
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="70" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="73" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="75"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1352,25 +1352,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="70" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="73" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="75"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1382,45 +1382,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="79" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="82" t="s">
+      <c r="F13" s="72"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="80" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="80"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1445,14 +1445,14 @@
       <c r="C14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="87"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="30" t="s">
         <v>32</v>
       </c>
@@ -1488,10 +1488,10 @@
       <c r="C15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="87"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="21" t="s">
         <v>24</v>
       </c>
@@ -1517,12 +1517,12 @@
         <v>30</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="27" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="92"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="18" t="s">
         <v>31</v>
       </c>
@@ -1542,1647 +1542,1638 @@
     </row>
     <row r="17" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
-      <c r="D17" s="89"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="89"/>
+      <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
-      <c r="D18" s="89"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="89"/>
+      <c r="G18" s="66"/>
       <c r="L18" s="40"/>
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="89"/>
+      <c r="G19" s="66"/>
       <c r="L19" s="40"/>
       <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
-      <c r="D20" s="89"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="89"/>
+      <c r="G20" s="66"/>
       <c r="L20" s="40"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
-      <c r="D21" s="89"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="89"/>
+      <c r="G21" s="66"/>
       <c r="L21" s="40"/>
       <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
-      <c r="D22" s="89"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="89"/>
+      <c r="G22" s="66"/>
       <c r="L22" s="40"/>
       <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
-      <c r="D23" s="89"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="89"/>
+      <c r="G23" s="66"/>
       <c r="L23" s="40"/>
       <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
-      <c r="D24" s="89"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="89"/>
+      <c r="G24" s="66"/>
       <c r="L24" s="40"/>
       <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
-      <c r="D25" s="89"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="89"/>
+      <c r="G25" s="66"/>
       <c r="L25" s="40"/>
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="89"/>
+      <c r="G26" s="66"/>
       <c r="L26" s="40"/>
       <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
-      <c r="D27" s="89"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="89"/>
+      <c r="G27" s="66"/>
       <c r="L27" s="40"/>
       <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
-      <c r="D28" s="89"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="89"/>
+      <c r="G28" s="66"/>
       <c r="L28" s="40"/>
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
-      <c r="D29" s="89"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="89"/>
+      <c r="G29" s="66"/>
       <c r="L29" s="40"/>
       <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
-      <c r="D30" s="89"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="89"/>
+      <c r="G30" s="66"/>
       <c r="L30" s="40"/>
       <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
-      <c r="D31" s="89"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="89"/>
+      <c r="G31" s="66"/>
       <c r="L31" s="40"/>
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
-      <c r="D32" s="89"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="89"/>
+      <c r="G32" s="66"/>
       <c r="L32" s="40"/>
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
-      <c r="D33" s="89"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="89"/>
+      <c r="G33" s="66"/>
       <c r="L33" s="40"/>
       <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
-      <c r="D34" s="89"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="89"/>
+      <c r="G34" s="66"/>
       <c r="L34" s="40"/>
       <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
-      <c r="D35" s="89"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="89"/>
+      <c r="G35" s="66"/>
       <c r="L35" s="40"/>
       <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
-      <c r="D36" s="89"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="89"/>
+      <c r="G36" s="66"/>
       <c r="L36" s="40"/>
       <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
-      <c r="D37" s="89"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="89"/>
+      <c r="G37" s="66"/>
       <c r="L37" s="40"/>
       <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
-      <c r="D38" s="89"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="89"/>
+      <c r="G38" s="66"/>
       <c r="L38" s="40"/>
       <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
-      <c r="D39" s="89"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="89"/>
+      <c r="G39" s="66"/>
       <c r="L39" s="40"/>
       <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
-      <c r="D40" s="89"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="89"/>
+      <c r="G40" s="66"/>
       <c r="L40" s="40"/>
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
-      <c r="D41" s="89"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="89"/>
+      <c r="G41" s="66"/>
       <c r="L41" s="40"/>
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="25"/>
-      <c r="D42" s="89"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="89"/>
+      <c r="G42" s="66"/>
       <c r="L42" s="40"/>
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
-      <c r="D43" s="89"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="89"/>
+      <c r="G43" s="66"/>
       <c r="L43" s="40"/>
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="25"/>
-      <c r="D44" s="89"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="89"/>
+      <c r="G44" s="66"/>
       <c r="L44" s="40"/>
       <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25"/>
-      <c r="D45" s="89"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="89"/>
+      <c r="G45" s="66"/>
       <c r="L45" s="40"/>
       <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25"/>
-      <c r="D46" s="89"/>
+      <c r="D46" s="66"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="89"/>
+      <c r="G46" s="66"/>
       <c r="L46" s="40"/>
       <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25"/>
-      <c r="D47" s="89"/>
+      <c r="D47" s="66"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="89"/>
+      <c r="G47" s="66"/>
       <c r="L47" s="40"/>
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
-      <c r="D48" s="89"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="89"/>
+      <c r="G48" s="66"/>
       <c r="L48" s="40"/>
       <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25"/>
-      <c r="D49" s="89"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="89"/>
+      <c r="G49" s="66"/>
       <c r="L49" s="40"/>
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25"/>
-      <c r="D50" s="89"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="89"/>
+      <c r="G50" s="66"/>
       <c r="L50" s="40"/>
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25"/>
-      <c r="D51" s="89"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="89"/>
+      <c r="G51" s="66"/>
       <c r="L51" s="40"/>
       <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25"/>
-      <c r="D52" s="89"/>
+      <c r="D52" s="66"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="89"/>
+      <c r="G52" s="66"/>
       <c r="L52" s="40"/>
       <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25"/>
-      <c r="D53" s="89"/>
+      <c r="D53" s="66"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="89"/>
+      <c r="G53" s="66"/>
       <c r="L53" s="40"/>
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="25"/>
-      <c r="D54" s="89"/>
+      <c r="D54" s="66"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="89"/>
+      <c r="G54" s="66"/>
       <c r="L54" s="40"/>
       <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="25"/>
-      <c r="D55" s="89"/>
+      <c r="D55" s="66"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="89"/>
+      <c r="G55" s="66"/>
       <c r="L55" s="40"/>
       <c r="N55" s="40"/>
     </row>
     <row r="56" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
-      <c r="D56" s="89"/>
+      <c r="D56" s="66"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="89"/>
+      <c r="G56" s="66"/>
       <c r="L56" s="40"/>
       <c r="N56" s="40"/>
     </row>
     <row r="57" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="25"/>
-      <c r="D57" s="89"/>
+      <c r="D57" s="66"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="89"/>
+      <c r="G57" s="66"/>
       <c r="L57" s="40"/>
       <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
-      <c r="D58" s="89"/>
+      <c r="D58" s="66"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="89"/>
+      <c r="G58" s="66"/>
       <c r="L58" s="40"/>
       <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25"/>
-      <c r="D59" s="89"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="89"/>
+      <c r="G59" s="66"/>
       <c r="L59" s="40"/>
       <c r="N59" s="40"/>
     </row>
     <row r="60" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="25"/>
-      <c r="D60" s="89"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
-      <c r="G60" s="89"/>
+      <c r="G60" s="66"/>
       <c r="L60" s="40"/>
       <c r="N60" s="40"/>
     </row>
     <row r="61" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="25"/>
-      <c r="D61" s="89"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
-      <c r="G61" s="89"/>
+      <c r="G61" s="66"/>
       <c r="L61" s="40"/>
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="25"/>
-      <c r="D62" s="89"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
-      <c r="G62" s="89"/>
+      <c r="G62" s="66"/>
       <c r="L62" s="40"/>
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
-      <c r="D63" s="89"/>
+      <c r="D63" s="66"/>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
-      <c r="G63" s="89"/>
+      <c r="G63" s="66"/>
       <c r="L63" s="40"/>
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
-      <c r="D64" s="89"/>
+      <c r="D64" s="66"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
-      <c r="G64" s="89"/>
+      <c r="G64" s="66"/>
       <c r="L64" s="40"/>
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
-      <c r="D65" s="89"/>
+      <c r="D65" s="66"/>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
-      <c r="G65" s="89"/>
+      <c r="G65" s="66"/>
       <c r="L65" s="40"/>
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25"/>
-      <c r="D66" s="89"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
-      <c r="G66" s="89"/>
+      <c r="G66" s="66"/>
       <c r="L66" s="40"/>
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="25"/>
-      <c r="D67" s="89"/>
+      <c r="D67" s="66"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="89"/>
+      <c r="G67" s="66"/>
       <c r="L67" s="40"/>
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25"/>
-      <c r="D68" s="89"/>
+      <c r="D68" s="66"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="89"/>
+      <c r="G68" s="66"/>
       <c r="L68" s="40"/>
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25"/>
-      <c r="D69" s="89"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="89"/>
+      <c r="G69" s="66"/>
       <c r="L69" s="40"/>
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="25"/>
-      <c r="D70" s="89"/>
+      <c r="D70" s="66"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
-      <c r="G70" s="89"/>
+      <c r="G70" s="66"/>
       <c r="L70" s="40"/>
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="25"/>
-      <c r="D71" s="89"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
-      <c r="G71" s="89"/>
+      <c r="G71" s="66"/>
       <c r="L71" s="40"/>
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
-      <c r="D72" s="89"/>
+      <c r="D72" s="66"/>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
-      <c r="G72" s="89"/>
+      <c r="G72" s="66"/>
       <c r="L72" s="40"/>
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="25"/>
-      <c r="D73" s="89"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
-      <c r="G73" s="89"/>
+      <c r="G73" s="66"/>
       <c r="L73" s="40"/>
       <c r="N73" s="40"/>
     </row>
     <row r="74" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="25"/>
-      <c r="D74" s="89"/>
+      <c r="D74" s="66"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
-      <c r="G74" s="89"/>
+      <c r="G74" s="66"/>
       <c r="L74" s="40"/>
       <c r="N74" s="40"/>
     </row>
     <row r="75" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="25"/>
-      <c r="D75" s="89"/>
+      <c r="D75" s="66"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="89"/>
+      <c r="G75" s="66"/>
       <c r="L75" s="40"/>
       <c r="N75" s="40"/>
     </row>
     <row r="76" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="25"/>
-      <c r="D76" s="89"/>
+      <c r="D76" s="66"/>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="89"/>
+      <c r="G76" s="66"/>
       <c r="L76" s="40"/>
       <c r="N76" s="40"/>
     </row>
     <row r="77" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
-      <c r="D77" s="89"/>
+      <c r="D77" s="66"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="89"/>
+      <c r="G77" s="66"/>
       <c r="L77" s="40"/>
       <c r="N77" s="40"/>
     </row>
     <row r="78" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="25"/>
-      <c r="D78" s="89"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="89"/>
+      <c r="G78" s="66"/>
       <c r="L78" s="40"/>
       <c r="N78" s="40"/>
     </row>
     <row r="79" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="25"/>
-      <c r="D79" s="89"/>
+      <c r="D79" s="66"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
-      <c r="G79" s="89"/>
+      <c r="G79" s="66"/>
       <c r="L79" s="40"/>
       <c r="N79" s="40"/>
     </row>
     <row r="80" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="25"/>
-      <c r="D80" s="89"/>
+      <c r="D80" s="66"/>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
-      <c r="G80" s="89"/>
+      <c r="G80" s="66"/>
       <c r="L80" s="40"/>
       <c r="N80" s="40"/>
     </row>
     <row r="81" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="25"/>
-      <c r="D81" s="89"/>
+      <c r="D81" s="66"/>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
-      <c r="G81" s="89"/>
+      <c r="G81" s="66"/>
       <c r="L81" s="40"/>
       <c r="N81" s="40"/>
     </row>
     <row r="82" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="25"/>
-      <c r="D82" s="89"/>
+      <c r="D82" s="66"/>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
-      <c r="G82" s="89"/>
+      <c r="G82" s="66"/>
       <c r="L82" s="40"/>
       <c r="N82" s="40"/>
     </row>
     <row r="83" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="25"/>
-      <c r="D83" s="89"/>
+      <c r="D83" s="66"/>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
-      <c r="G83" s="89"/>
+      <c r="G83" s="66"/>
       <c r="L83" s="40"/>
       <c r="N83" s="40"/>
     </row>
     <row r="84" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="25"/>
-      <c r="D84" s="89"/>
+      <c r="D84" s="66"/>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
-      <c r="G84" s="89"/>
+      <c r="G84" s="66"/>
       <c r="L84" s="40"/>
       <c r="N84" s="40"/>
     </row>
     <row r="85" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="25"/>
-      <c r="D85" s="89"/>
+      <c r="D85" s="66"/>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
-      <c r="G85" s="89"/>
+      <c r="G85" s="66"/>
       <c r="L85" s="40"/>
       <c r="N85" s="40"/>
     </row>
     <row r="86" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="25"/>
-      <c r="D86" s="89"/>
+      <c r="D86" s="66"/>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
-      <c r="G86" s="89"/>
+      <c r="G86" s="66"/>
       <c r="L86" s="40"/>
       <c r="N86" s="40"/>
     </row>
     <row r="87" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="25"/>
-      <c r="D87" s="89"/>
+      <c r="D87" s="66"/>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
-      <c r="G87" s="89"/>
+      <c r="G87" s="66"/>
       <c r="L87" s="40"/>
       <c r="N87" s="40"/>
     </row>
     <row r="88" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="25"/>
-      <c r="D88" s="89"/>
+      <c r="D88" s="66"/>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
-      <c r="G88" s="89"/>
+      <c r="G88" s="66"/>
       <c r="L88" s="40"/>
       <c r="N88" s="40"/>
     </row>
     <row r="89" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="25"/>
-      <c r="D89" s="89"/>
+      <c r="D89" s="66"/>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
-      <c r="G89" s="89"/>
+      <c r="G89" s="66"/>
       <c r="L89" s="40"/>
       <c r="N89" s="40"/>
     </row>
     <row r="90" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="25"/>
-      <c r="D90" s="89"/>
+      <c r="D90" s="66"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
-      <c r="G90" s="89"/>
+      <c r="G90" s="66"/>
       <c r="L90" s="40"/>
       <c r="N90" s="40"/>
     </row>
     <row r="91" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="25"/>
-      <c r="D91" s="89"/>
+      <c r="D91" s="66"/>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
-      <c r="G91" s="89"/>
+      <c r="G91" s="66"/>
       <c r="L91" s="40"/>
       <c r="N91" s="40"/>
     </row>
     <row r="92" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="25"/>
-      <c r="D92" s="89"/>
+      <c r="D92" s="66"/>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
-      <c r="G92" s="89"/>
+      <c r="G92" s="66"/>
       <c r="L92" s="40"/>
       <c r="N92" s="40"/>
     </row>
     <row r="93" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="25"/>
-      <c r="D93" s="89"/>
+      <c r="D93" s="66"/>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
-      <c r="G93" s="89"/>
+      <c r="G93" s="66"/>
       <c r="L93" s="40"/>
       <c r="N93" s="40"/>
     </row>
     <row r="94" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25"/>
-      <c r="D94" s="89"/>
+      <c r="D94" s="66"/>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
-      <c r="G94" s="89"/>
+      <c r="G94" s="66"/>
       <c r="L94" s="40"/>
       <c r="N94" s="40"/>
     </row>
     <row r="95" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="25"/>
-      <c r="D95" s="89"/>
+      <c r="D95" s="66"/>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
-      <c r="G95" s="89"/>
+      <c r="G95" s="66"/>
       <c r="L95" s="40"/>
       <c r="N95" s="40"/>
     </row>
     <row r="96" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="25"/>
-      <c r="D96" s="89"/>
+      <c r="D96" s="66"/>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
-      <c r="G96" s="89"/>
+      <c r="G96" s="66"/>
       <c r="L96" s="40"/>
       <c r="N96" s="40"/>
     </row>
     <row r="97" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="25"/>
-      <c r="D97" s="89"/>
+      <c r="D97" s="66"/>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
-      <c r="G97" s="89"/>
+      <c r="G97" s="66"/>
       <c r="L97" s="40"/>
       <c r="N97" s="40"/>
     </row>
     <row r="98" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="25"/>
-      <c r="D98" s="89"/>
+      <c r="D98" s="66"/>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
-      <c r="G98" s="89"/>
+      <c r="G98" s="66"/>
       <c r="L98" s="40"/>
       <c r="N98" s="40"/>
     </row>
     <row r="99" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="25"/>
-      <c r="D99" s="89"/>
+      <c r="D99" s="66"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
-      <c r="G99" s="89"/>
+      <c r="G99" s="66"/>
       <c r="L99" s="40"/>
       <c r="N99" s="40"/>
     </row>
     <row r="100" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="25"/>
-      <c r="D100" s="89"/>
+      <c r="D100" s="66"/>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
-      <c r="G100" s="89"/>
+      <c r="G100" s="66"/>
       <c r="L100" s="40"/>
       <c r="N100" s="40"/>
     </row>
     <row r="101" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="25"/>
-      <c r="D101" s="89"/>
+      <c r="D101" s="66"/>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
-      <c r="G101" s="89"/>
+      <c r="G101" s="66"/>
       <c r="L101" s="40"/>
       <c r="N101" s="40"/>
     </row>
     <row r="102" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="25"/>
-      <c r="D102" s="89"/>
+      <c r="D102" s="66"/>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
-      <c r="G102" s="89"/>
+      <c r="G102" s="66"/>
       <c r="L102" s="40"/>
       <c r="N102" s="40"/>
     </row>
     <row r="103" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="25"/>
-      <c r="D103" s="89"/>
+      <c r="D103" s="66"/>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
-      <c r="G103" s="89"/>
+      <c r="G103" s="66"/>
       <c r="L103" s="40"/>
       <c r="N103" s="40"/>
     </row>
     <row r="104" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="25"/>
-      <c r="D104" s="89"/>
+      <c r="D104" s="66"/>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
-      <c r="G104" s="89"/>
+      <c r="G104" s="66"/>
       <c r="L104" s="40"/>
       <c r="N104" s="40"/>
     </row>
     <row r="105" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="25"/>
-      <c r="D105" s="89"/>
+      <c r="D105" s="66"/>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
-      <c r="G105" s="89"/>
+      <c r="G105" s="66"/>
       <c r="L105" s="40"/>
       <c r="N105" s="40"/>
     </row>
     <row r="106" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="25"/>
-      <c r="D106" s="89"/>
+      <c r="D106" s="66"/>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
-      <c r="G106" s="89"/>
+      <c r="G106" s="66"/>
       <c r="L106" s="40"/>
       <c r="N106" s="40"/>
     </row>
     <row r="107" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="25"/>
-      <c r="D107" s="89"/>
+      <c r="D107" s="66"/>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
-      <c r="G107" s="89"/>
+      <c r="G107" s="66"/>
       <c r="L107" s="40"/>
       <c r="N107" s="40"/>
     </row>
     <row r="108" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="25"/>
-      <c r="D108" s="89"/>
+      <c r="D108" s="66"/>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
-      <c r="G108" s="89"/>
+      <c r="G108" s="66"/>
       <c r="L108" s="40"/>
       <c r="N108" s="40"/>
     </row>
     <row r="109" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="25"/>
-      <c r="D109" s="89"/>
+      <c r="D109" s="66"/>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
-      <c r="G109" s="89"/>
+      <c r="G109" s="66"/>
       <c r="L109" s="40"/>
       <c r="N109" s="40"/>
     </row>
     <row r="110" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="25"/>
-      <c r="D110" s="89"/>
+      <c r="D110" s="66"/>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
-      <c r="G110" s="89"/>
+      <c r="G110" s="66"/>
       <c r="L110" s="40"/>
       <c r="N110" s="40"/>
     </row>
     <row r="111" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="25"/>
-      <c r="D111" s="89"/>
+      <c r="D111" s="66"/>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
-      <c r="G111" s="89"/>
+      <c r="G111" s="66"/>
       <c r="L111" s="40"/>
       <c r="N111" s="40"/>
     </row>
     <row r="112" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="25"/>
-      <c r="D112" s="89"/>
+      <c r="D112" s="66"/>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
-      <c r="G112" s="89"/>
+      <c r="G112" s="66"/>
       <c r="L112" s="40"/>
       <c r="N112" s="40"/>
     </row>
     <row r="113" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="25"/>
-      <c r="D113" s="89"/>
+      <c r="D113" s="66"/>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
-      <c r="G113" s="89"/>
+      <c r="G113" s="66"/>
       <c r="L113" s="40"/>
       <c r="N113" s="40"/>
     </row>
     <row r="114" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="25"/>
-      <c r="D114" s="89"/>
+      <c r="D114" s="66"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
-      <c r="G114" s="89"/>
+      <c r="G114" s="66"/>
       <c r="L114" s="40"/>
       <c r="N114" s="40"/>
     </row>
     <row r="115" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="25"/>
-      <c r="D115" s="89"/>
+      <c r="D115" s="66"/>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
-      <c r="G115" s="89"/>
+      <c r="G115" s="66"/>
       <c r="L115" s="40"/>
       <c r="N115" s="40"/>
     </row>
     <row r="116" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="25"/>
-      <c r="D116" s="89"/>
+      <c r="D116" s="66"/>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
-      <c r="G116" s="89"/>
+      <c r="G116" s="66"/>
       <c r="L116" s="40"/>
       <c r="N116" s="40"/>
     </row>
     <row r="117" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="25"/>
-      <c r="D117" s="89"/>
+      <c r="D117" s="66"/>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
-      <c r="G117" s="89"/>
+      <c r="G117" s="66"/>
       <c r="L117" s="40"/>
       <c r="N117" s="40"/>
     </row>
     <row r="118" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="25"/>
-      <c r="D118" s="89"/>
+      <c r="D118" s="66"/>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
-      <c r="G118" s="89"/>
+      <c r="G118" s="66"/>
       <c r="L118" s="40"/>
       <c r="N118" s="40"/>
     </row>
     <row r="119" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="25"/>
-      <c r="D119" s="89"/>
+      <c r="D119" s="66"/>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
-      <c r="G119" s="89"/>
+      <c r="G119" s="66"/>
       <c r="L119" s="40"/>
       <c r="N119" s="40"/>
     </row>
     <row r="120" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="25"/>
-      <c r="D120" s="89"/>
+      <c r="D120" s="66"/>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
-      <c r="G120" s="89"/>
+      <c r="G120" s="66"/>
       <c r="L120" s="40"/>
       <c r="N120" s="40"/>
     </row>
     <row r="121" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="25"/>
-      <c r="D121" s="89"/>
+      <c r="D121" s="66"/>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
-      <c r="G121" s="89"/>
+      <c r="G121" s="66"/>
       <c r="L121" s="40"/>
       <c r="N121" s="40"/>
     </row>
     <row r="122" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="25"/>
-      <c r="D122" s="89"/>
+      <c r="D122" s="66"/>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
-      <c r="G122" s="89"/>
+      <c r="G122" s="66"/>
       <c r="L122" s="40"/>
       <c r="N122" s="40"/>
     </row>
     <row r="123" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="25"/>
-      <c r="D123" s="89"/>
+      <c r="D123" s="66"/>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
-      <c r="G123" s="89"/>
+      <c r="G123" s="66"/>
       <c r="L123" s="40"/>
       <c r="N123" s="40"/>
     </row>
     <row r="124" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="25"/>
-      <c r="D124" s="89"/>
+      <c r="D124" s="66"/>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
-      <c r="G124" s="89"/>
+      <c r="G124" s="66"/>
       <c r="L124" s="40"/>
       <c r="N124" s="40"/>
     </row>
     <row r="125" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="25"/>
-      <c r="D125" s="89"/>
+      <c r="D125" s="66"/>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
-      <c r="G125" s="89"/>
+      <c r="G125" s="66"/>
       <c r="L125" s="40"/>
       <c r="N125" s="40"/>
     </row>
     <row r="126" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
-      <c r="D126" s="89"/>
+      <c r="D126" s="66"/>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
-      <c r="G126" s="89"/>
+      <c r="G126" s="66"/>
       <c r="L126" s="40"/>
       <c r="N126" s="40"/>
     </row>
     <row r="127" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="25"/>
-      <c r="D127" s="89"/>
+      <c r="D127" s="66"/>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
-      <c r="G127" s="89"/>
+      <c r="G127" s="66"/>
       <c r="L127" s="40"/>
       <c r="N127" s="40"/>
     </row>
     <row r="128" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="25"/>
-      <c r="D128" s="89"/>
+      <c r="D128" s="66"/>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
-      <c r="G128" s="89"/>
+      <c r="G128" s="66"/>
       <c r="L128" s="40"/>
       <c r="N128" s="40"/>
     </row>
     <row r="129" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="25"/>
-      <c r="D129" s="89"/>
+      <c r="D129" s="66"/>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
-      <c r="G129" s="89"/>
+      <c r="G129" s="66"/>
       <c r="L129" s="40"/>
       <c r="N129" s="40"/>
     </row>
     <row r="130" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="25"/>
-      <c r="D130" s="89"/>
+      <c r="D130" s="66"/>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
-      <c r="G130" s="89"/>
+      <c r="G130" s="66"/>
       <c r="L130" s="40"/>
       <c r="N130" s="40"/>
     </row>
     <row r="131" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="25"/>
-      <c r="D131" s="89"/>
+      <c r="D131" s="66"/>
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
-      <c r="G131" s="89"/>
+      <c r="G131" s="66"/>
       <c r="L131" s="40"/>
       <c r="N131" s="40"/>
     </row>
     <row r="132" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="25"/>
-      <c r="D132" s="89"/>
+      <c r="D132" s="66"/>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
-      <c r="G132" s="89"/>
+      <c r="G132" s="66"/>
       <c r="L132" s="40"/>
       <c r="N132" s="40"/>
     </row>
     <row r="133" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="25"/>
-      <c r="D133" s="89"/>
+      <c r="D133" s="66"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
-      <c r="G133" s="89"/>
+      <c r="G133" s="66"/>
       <c r="L133" s="40"/>
       <c r="N133" s="40"/>
     </row>
     <row r="134" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="25"/>
-      <c r="D134" s="89"/>
+      <c r="D134" s="66"/>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
-      <c r="G134" s="89"/>
+      <c r="G134" s="66"/>
       <c r="L134" s="40"/>
       <c r="N134" s="40"/>
     </row>
     <row r="135" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="25"/>
-      <c r="D135" s="89"/>
+      <c r="D135" s="66"/>
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
-      <c r="G135" s="89"/>
+      <c r="G135" s="66"/>
       <c r="L135" s="40"/>
       <c r="N135" s="40"/>
     </row>
     <row r="136" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="25"/>
-      <c r="D136" s="89"/>
+      <c r="D136" s="66"/>
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
-      <c r="G136" s="89"/>
+      <c r="G136" s="66"/>
       <c r="L136" s="40"/>
       <c r="N136" s="40"/>
     </row>
     <row r="137" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="25"/>
-      <c r="D137" s="89"/>
+      <c r="D137" s="66"/>
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
-      <c r="G137" s="89"/>
+      <c r="G137" s="66"/>
       <c r="L137" s="40"/>
       <c r="N137" s="40"/>
     </row>
     <row r="138" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="25"/>
-      <c r="D138" s="89"/>
+      <c r="D138" s="66"/>
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
-      <c r="G138" s="89"/>
+      <c r="G138" s="66"/>
       <c r="L138" s="40"/>
       <c r="N138" s="40"/>
     </row>
     <row r="139" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="25"/>
-      <c r="D139" s="89"/>
+      <c r="D139" s="66"/>
       <c r="E139" s="28"/>
       <c r="F139" s="28"/>
-      <c r="G139" s="89"/>
+      <c r="G139" s="66"/>
       <c r="L139" s="40"/>
       <c r="N139" s="40"/>
     </row>
     <row r="140" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="25"/>
-      <c r="D140" s="89"/>
+      <c r="D140" s="66"/>
       <c r="E140" s="28"/>
       <c r="F140" s="28"/>
-      <c r="G140" s="89"/>
+      <c r="G140" s="66"/>
       <c r="L140" s="40"/>
       <c r="N140" s="40"/>
     </row>
     <row r="141" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="25"/>
-      <c r="D141" s="89"/>
+      <c r="D141" s="66"/>
       <c r="E141" s="28"/>
       <c r="F141" s="28"/>
-      <c r="G141" s="89"/>
+      <c r="G141" s="66"/>
       <c r="L141" s="40"/>
       <c r="N141" s="40"/>
     </row>
     <row r="142" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="25"/>
-      <c r="D142" s="89"/>
+      <c r="D142" s="66"/>
       <c r="E142" s="28"/>
       <c r="F142" s="28"/>
-      <c r="G142" s="89"/>
+      <c r="G142" s="66"/>
       <c r="L142" s="40"/>
       <c r="N142" s="40"/>
     </row>
     <row r="143" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="25"/>
-      <c r="D143" s="89"/>
+      <c r="D143" s="66"/>
       <c r="E143" s="28"/>
       <c r="F143" s="28"/>
-      <c r="G143" s="89"/>
+      <c r="G143" s="66"/>
       <c r="L143" s="40"/>
       <c r="N143" s="40"/>
     </row>
     <row r="144" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="25"/>
-      <c r="D144" s="89"/>
+      <c r="D144" s="66"/>
       <c r="E144" s="28"/>
       <c r="F144" s="28"/>
-      <c r="G144" s="89"/>
+      <c r="G144" s="66"/>
       <c r="L144" s="40"/>
       <c r="N144" s="40"/>
     </row>
     <row r="145" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="25"/>
-      <c r="D145" s="89"/>
+      <c r="D145" s="66"/>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
-      <c r="G145" s="89"/>
+      <c r="G145" s="66"/>
       <c r="L145" s="40"/>
       <c r="N145" s="40"/>
     </row>
     <row r="146" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
-      <c r="D146" s="89"/>
+      <c r="D146" s="66"/>
       <c r="E146" s="28"/>
       <c r="F146" s="28"/>
-      <c r="G146" s="89"/>
+      <c r="G146" s="66"/>
       <c r="L146" s="40"/>
       <c r="N146" s="40"/>
     </row>
     <row r="147" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
-      <c r="D147" s="89"/>
+      <c r="D147" s="66"/>
       <c r="E147" s="28"/>
       <c r="F147" s="28"/>
-      <c r="G147" s="89"/>
+      <c r="G147" s="66"/>
       <c r="L147" s="40"/>
       <c r="N147" s="40"/>
     </row>
     <row r="148" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
-      <c r="D148" s="89"/>
+      <c r="D148" s="66"/>
       <c r="E148" s="28"/>
       <c r="F148" s="28"/>
-      <c r="G148" s="89"/>
+      <c r="G148" s="66"/>
       <c r="L148" s="40"/>
       <c r="N148" s="40"/>
     </row>
     <row r="149" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
-      <c r="D149" s="89"/>
+      <c r="D149" s="66"/>
       <c r="E149" s="28"/>
       <c r="F149" s="28"/>
-      <c r="G149" s="89"/>
+      <c r="G149" s="66"/>
       <c r="L149" s="40"/>
       <c r="N149" s="40"/>
     </row>
     <row r="150" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
-      <c r="D150" s="89"/>
+      <c r="D150" s="66"/>
       <c r="E150" s="28"/>
       <c r="F150" s="28"/>
-      <c r="G150" s="89"/>
+      <c r="G150" s="66"/>
       <c r="L150" s="40"/>
       <c r="N150" s="40"/>
     </row>
     <row r="151" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
-      <c r="D151" s="89"/>
+      <c r="D151" s="66"/>
       <c r="E151" s="28"/>
       <c r="F151" s="28"/>
-      <c r="G151" s="89"/>
+      <c r="G151" s="66"/>
       <c r="L151" s="40"/>
       <c r="N151" s="40"/>
     </row>
     <row r="152" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
-      <c r="D152" s="89"/>
+      <c r="D152" s="66"/>
       <c r="E152" s="28"/>
       <c r="F152" s="28"/>
-      <c r="G152" s="89"/>
+      <c r="G152" s="66"/>
       <c r="L152" s="40"/>
       <c r="N152" s="40"/>
     </row>
     <row r="153" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
-      <c r="D153" s="89"/>
+      <c r="D153" s="66"/>
       <c r="E153" s="28"/>
       <c r="F153" s="28"/>
-      <c r="G153" s="89"/>
+      <c r="G153" s="66"/>
       <c r="L153" s="40"/>
       <c r="N153" s="40"/>
     </row>
     <row r="154" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
-      <c r="D154" s="89"/>
+      <c r="D154" s="66"/>
       <c r="E154" s="28"/>
       <c r="F154" s="28"/>
-      <c r="G154" s="89"/>
+      <c r="G154" s="66"/>
       <c r="L154" s="40"/>
       <c r="N154" s="40"/>
     </row>
     <row r="155" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="25"/>
-      <c r="D155" s="89"/>
+      <c r="D155" s="66"/>
       <c r="E155" s="28"/>
       <c r="F155" s="28"/>
-      <c r="G155" s="89"/>
+      <c r="G155" s="66"/>
       <c r="L155" s="40"/>
       <c r="N155" s="40"/>
     </row>
     <row r="156" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="25"/>
-      <c r="D156" s="89"/>
+      <c r="D156" s="66"/>
       <c r="E156" s="28"/>
       <c r="F156" s="28"/>
-      <c r="G156" s="89"/>
+      <c r="G156" s="66"/>
       <c r="L156" s="40"/>
       <c r="N156" s="40"/>
     </row>
     <row r="157" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="25"/>
-      <c r="D157" s="89"/>
+      <c r="D157" s="66"/>
       <c r="E157" s="28"/>
       <c r="F157" s="28"/>
-      <c r="G157" s="89"/>
+      <c r="G157" s="66"/>
       <c r="L157" s="40"/>
       <c r="N157" s="40"/>
     </row>
     <row r="158" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="25"/>
-      <c r="D158" s="89"/>
+      <c r="D158" s="66"/>
       <c r="E158" s="28"/>
       <c r="F158" s="28"/>
-      <c r="G158" s="89"/>
+      <c r="G158" s="66"/>
       <c r="L158" s="40"/>
       <c r="N158" s="40"/>
     </row>
     <row r="159" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="25"/>
-      <c r="D159" s="89"/>
+      <c r="D159" s="66"/>
       <c r="E159" s="28"/>
       <c r="F159" s="28"/>
-      <c r="G159" s="89"/>
+      <c r="G159" s="66"/>
       <c r="L159" s="40"/>
       <c r="N159" s="40"/>
     </row>
     <row r="160" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="25"/>
-      <c r="D160" s="89"/>
+      <c r="D160" s="66"/>
       <c r="E160" s="28"/>
       <c r="F160" s="28"/>
-      <c r="G160" s="89"/>
+      <c r="G160" s="66"/>
       <c r="L160" s="40"/>
       <c r="N160" s="40"/>
     </row>
     <row r="161" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="25"/>
-      <c r="D161" s="89"/>
+      <c r="D161" s="66"/>
       <c r="E161" s="28"/>
       <c r="F161" s="28"/>
-      <c r="G161" s="89"/>
+      <c r="G161" s="66"/>
       <c r="L161" s="40"/>
       <c r="N161" s="40"/>
     </row>
     <row r="162" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="25"/>
-      <c r="D162" s="89"/>
+      <c r="D162" s="66"/>
       <c r="E162" s="28"/>
       <c r="F162" s="28"/>
-      <c r="G162" s="89"/>
+      <c r="G162" s="66"/>
       <c r="L162" s="40"/>
       <c r="N162" s="40"/>
     </row>
     <row r="163" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="25"/>
-      <c r="D163" s="89"/>
+      <c r="D163" s="66"/>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
-      <c r="G163" s="89"/>
+      <c r="G163" s="66"/>
       <c r="L163" s="40"/>
       <c r="N163" s="40"/>
     </row>
     <row r="164" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="25"/>
-      <c r="D164" s="89"/>
+      <c r="D164" s="66"/>
       <c r="E164" s="28"/>
       <c r="F164" s="28"/>
-      <c r="G164" s="89"/>
+      <c r="G164" s="66"/>
       <c r="L164" s="40"/>
       <c r="N164" s="40"/>
     </row>
     <row r="165" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="25"/>
-      <c r="D165" s="89"/>
+      <c r="D165" s="66"/>
       <c r="E165" s="28"/>
       <c r="F165" s="28"/>
-      <c r="G165" s="89"/>
+      <c r="G165" s="66"/>
       <c r="L165" s="40"/>
       <c r="N165" s="40"/>
     </row>
     <row r="166" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="25"/>
-      <c r="D166" s="89"/>
+      <c r="D166" s="66"/>
       <c r="E166" s="28"/>
       <c r="F166" s="28"/>
-      <c r="G166" s="89"/>
+      <c r="G166" s="66"/>
       <c r="L166" s="40"/>
       <c r="N166" s="40"/>
     </row>
     <row r="167" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="25"/>
-      <c r="D167" s="89"/>
+      <c r="D167" s="66"/>
       <c r="E167" s="28"/>
       <c r="F167" s="28"/>
-      <c r="G167" s="89"/>
+      <c r="G167" s="66"/>
       <c r="L167" s="40"/>
       <c r="N167" s="40"/>
     </row>
     <row r="168" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="25"/>
-      <c r="D168" s="89"/>
+      <c r="D168" s="66"/>
       <c r="E168" s="28"/>
       <c r="F168" s="28"/>
-      <c r="G168" s="89"/>
+      <c r="G168" s="66"/>
       <c r="L168" s="40"/>
       <c r="N168" s="40"/>
     </row>
     <row r="169" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="25"/>
-      <c r="D169" s="89"/>
+      <c r="D169" s="66"/>
       <c r="E169" s="28"/>
       <c r="F169" s="28"/>
-      <c r="G169" s="89"/>
+      <c r="G169" s="66"/>
       <c r="L169" s="40"/>
       <c r="N169" s="40"/>
     </row>
     <row r="170" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="25"/>
-      <c r="D170" s="89"/>
+      <c r="D170" s="66"/>
       <c r="E170" s="28"/>
       <c r="F170" s="28"/>
-      <c r="G170" s="89"/>
+      <c r="G170" s="66"/>
       <c r="L170" s="40"/>
       <c r="N170" s="40"/>
     </row>
     <row r="171" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="25"/>
-      <c r="D171" s="89"/>
+      <c r="D171" s="66"/>
       <c r="E171" s="28"/>
       <c r="F171" s="28"/>
-      <c r="G171" s="89"/>
+      <c r="G171" s="66"/>
       <c r="L171" s="40"/>
       <c r="N171" s="40"/>
     </row>
     <row r="172" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
-      <c r="D172" s="89"/>
+      <c r="D172" s="66"/>
       <c r="E172" s="28"/>
       <c r="F172" s="28"/>
-      <c r="G172" s="89"/>
+      <c r="G172" s="66"/>
       <c r="L172" s="40"/>
       <c r="N172" s="40"/>
     </row>
     <row r="173" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25"/>
-      <c r="D173" s="89"/>
+      <c r="D173" s="66"/>
       <c r="E173" s="28"/>
       <c r="F173" s="28"/>
-      <c r="G173" s="89"/>
+      <c r="G173" s="66"/>
       <c r="L173" s="40"/>
       <c r="N173" s="40"/>
     </row>
     <row r="174" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="25"/>
-      <c r="D174" s="89"/>
+      <c r="D174" s="66"/>
       <c r="E174" s="28"/>
       <c r="F174" s="28"/>
-      <c r="G174" s="89"/>
+      <c r="G174" s="66"/>
       <c r="L174" s="40"/>
       <c r="N174" s="40"/>
     </row>
     <row r="175" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="25"/>
-      <c r="D175" s="89"/>
+      <c r="D175" s="66"/>
       <c r="E175" s="28"/>
       <c r="F175" s="28"/>
-      <c r="G175" s="89"/>
+      <c r="G175" s="66"/>
       <c r="L175" s="40"/>
       <c r="N175" s="40"/>
     </row>
     <row r="176" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="25"/>
-      <c r="D176" s="89"/>
+      <c r="D176" s="66"/>
       <c r="E176" s="28"/>
       <c r="F176" s="28"/>
-      <c r="G176" s="89"/>
+      <c r="G176" s="66"/>
       <c r="L176" s="40"/>
       <c r="N176" s="40"/>
     </row>
     <row r="177" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="25"/>
-      <c r="D177" s="89"/>
+      <c r="D177" s="66"/>
       <c r="E177" s="28"/>
       <c r="F177" s="28"/>
-      <c r="G177" s="89"/>
+      <c r="G177" s="66"/>
       <c r="L177" s="40"/>
       <c r="N177" s="40"/>
     </row>
     <row r="178" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="25"/>
-      <c r="D178" s="89"/>
+      <c r="D178" s="66"/>
       <c r="E178" s="28"/>
       <c r="F178" s="28"/>
-      <c r="G178" s="89"/>
+      <c r="G178" s="66"/>
       <c r="L178" s="40"/>
       <c r="N178" s="40"/>
     </row>
     <row r="179" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="25"/>
-      <c r="D179" s="89"/>
+      <c r="D179" s="66"/>
       <c r="E179" s="28"/>
       <c r="F179" s="28"/>
-      <c r="G179" s="89"/>
+      <c r="G179" s="66"/>
       <c r="L179" s="40"/>
       <c r="N179" s="40"/>
     </row>
     <row r="180" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="25"/>
-      <c r="D180" s="89"/>
+      <c r="D180" s="66"/>
       <c r="E180" s="28"/>
       <c r="F180" s="28"/>
-      <c r="G180" s="89"/>
+      <c r="G180" s="66"/>
       <c r="L180" s="40"/>
       <c r="N180" s="40"/>
     </row>
     <row r="181" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="25"/>
-      <c r="D181" s="89"/>
+      <c r="D181" s="66"/>
       <c r="E181" s="28"/>
       <c r="F181" s="28"/>
-      <c r="G181" s="89"/>
+      <c r="G181" s="66"/>
       <c r="L181" s="40"/>
       <c r="N181" s="40"/>
     </row>
     <row r="182" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="25"/>
-      <c r="D182" s="89"/>
+      <c r="D182" s="66"/>
       <c r="E182" s="28"/>
       <c r="F182" s="28"/>
-      <c r="G182" s="89"/>
+      <c r="G182" s="66"/>
       <c r="L182" s="40"/>
       <c r="N182" s="40"/>
     </row>
     <row r="183" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="25"/>
-      <c r="D183" s="89"/>
+      <c r="D183" s="66"/>
       <c r="E183" s="28"/>
       <c r="F183" s="28"/>
-      <c r="G183" s="89"/>
+      <c r="G183" s="66"/>
       <c r="L183" s="40"/>
       <c r="N183" s="40"/>
     </row>
     <row r="184" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="25"/>
-      <c r="D184" s="89"/>
+      <c r="D184" s="66"/>
       <c r="E184" s="28"/>
       <c r="F184" s="28"/>
-      <c r="G184" s="89"/>
+      <c r="G184" s="66"/>
       <c r="L184" s="40"/>
       <c r="N184" s="40"/>
     </row>
     <row r="185" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25"/>
-      <c r="D185" s="89"/>
+      <c r="D185" s="66"/>
       <c r="E185" s="28"/>
       <c r="F185" s="28"/>
-      <c r="G185" s="89"/>
+      <c r="G185" s="66"/>
       <c r="L185" s="40"/>
       <c r="N185" s="40"/>
     </row>
     <row r="186" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="25"/>
-      <c r="D186" s="89"/>
+      <c r="D186" s="66"/>
       <c r="E186" s="28"/>
       <c r="F186" s="28"/>
-      <c r="G186" s="89"/>
+      <c r="G186" s="66"/>
       <c r="L186" s="40"/>
       <c r="N186" s="40"/>
     </row>
     <row r="187" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="25"/>
-      <c r="D187" s="89"/>
+      <c r="D187" s="66"/>
       <c r="E187" s="28"/>
       <c r="F187" s="28"/>
-      <c r="G187" s="89"/>
+      <c r="G187" s="66"/>
       <c r="L187" s="40"/>
       <c r="N187" s="40"/>
     </row>
     <row r="188" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="25"/>
-      <c r="D188" s="89"/>
+      <c r="D188" s="66"/>
       <c r="E188" s="28"/>
       <c r="F188" s="28"/>
-      <c r="G188" s="89"/>
+      <c r="G188" s="66"/>
       <c r="L188" s="40"/>
       <c r="N188" s="40"/>
     </row>
     <row r="189" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="25"/>
-      <c r="D189" s="89"/>
+      <c r="D189" s="66"/>
       <c r="E189" s="28"/>
       <c r="F189" s="28"/>
-      <c r="G189" s="89"/>
+      <c r="G189" s="66"/>
       <c r="L189" s="40"/>
       <c r="N189" s="40"/>
     </row>
     <row r="190" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="25"/>
-      <c r="D190" s="89"/>
+      <c r="D190" s="66"/>
       <c r="E190" s="28"/>
       <c r="F190" s="28"/>
-      <c r="G190" s="89"/>
+      <c r="G190" s="66"/>
       <c r="L190" s="40"/>
       <c r="N190" s="40"/>
     </row>
     <row r="191" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="25"/>
-      <c r="D191" s="89"/>
+      <c r="D191" s="66"/>
       <c r="E191" s="28"/>
       <c r="F191" s="28"/>
-      <c r="G191" s="89"/>
+      <c r="G191" s="66"/>
       <c r="L191" s="40"/>
       <c r="N191" s="40"/>
     </row>
     <row r="192" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="25"/>
-      <c r="D192" s="89"/>
+      <c r="D192" s="66"/>
       <c r="E192" s="28"/>
       <c r="F192" s="28"/>
-      <c r="G192" s="89"/>
+      <c r="G192" s="66"/>
       <c r="L192" s="40"/>
       <c r="N192" s="40"/>
     </row>
     <row r="193" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="25"/>
-      <c r="D193" s="89"/>
+      <c r="D193" s="66"/>
       <c r="E193" s="28"/>
       <c r="F193" s="28"/>
-      <c r="G193" s="89"/>
+      <c r="G193" s="66"/>
       <c r="L193" s="40"/>
       <c r="N193" s="40"/>
     </row>
     <row r="194" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="25"/>
-      <c r="D194" s="89"/>
+      <c r="D194" s="66"/>
       <c r="E194" s="28"/>
       <c r="F194" s="28"/>
-      <c r="G194" s="89"/>
+      <c r="G194" s="66"/>
       <c r="L194" s="40"/>
       <c r="N194" s="40"/>
     </row>
     <row r="195" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="25"/>
-      <c r="D195" s="89"/>
+      <c r="D195" s="66"/>
       <c r="E195" s="28"/>
       <c r="F195" s="28"/>
-      <c r="G195" s="89"/>
+      <c r="G195" s="66"/>
       <c r="L195" s="40"/>
       <c r="N195" s="40"/>
     </row>
     <row r="196" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="25"/>
-      <c r="D196" s="89"/>
+      <c r="D196" s="66"/>
       <c r="E196" s="28"/>
       <c r="F196" s="28"/>
-      <c r="G196" s="89"/>
+      <c r="G196" s="66"/>
       <c r="L196" s="40"/>
       <c r="N196" s="40"/>
     </row>
     <row r="197" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="25"/>
-      <c r="D197" s="89"/>
+      <c r="D197" s="66"/>
       <c r="E197" s="28"/>
       <c r="F197" s="28"/>
-      <c r="G197" s="89"/>
+      <c r="G197" s="66"/>
       <c r="L197" s="40"/>
       <c r="N197" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3195,6 +3186,15 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="1340" windowWidth="26880" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
     <t>Stella</t>
   </si>
@@ -579,6 +579,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,54 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,7 +946,7 @@
     <col min="8" max="9" width="16.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="6" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="29.33203125" style="59" customWidth="1"/>
+    <col min="12" max="12" width="35.83203125" style="59" customWidth="1"/>
     <col min="13" max="13" width="10" style="6" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" style="41" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="7" customWidth="1"/>
@@ -956,22 +956,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="79" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -983,51 +983,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="88"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="75"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1186,11 +1186,15 @@
       <c r="N6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="50"/>
+      <c r="O6" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="P6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="51"/>
+      <c r="Q6" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="240" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1272,7 +1276,9 @@
       <c r="P8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="51"/>
+      <c r="Q8" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1313,31 +1319,33 @@
       <c r="P9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="51"/>
+      <c r="Q9" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="92"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1352,25 +1360,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="90" t="s">
+      <c r="H11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="91"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="92"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1382,45 +1390,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="74" t="s">
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="74"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1547,9 +1555,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3174,6 +3182,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3186,15 +3203,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>Stella</t>
   </si>
@@ -215,6 +215,11 @@
   </si>
   <si>
     <t>2. Do up data storage for set-up: study conditions etc. (KIV, model after Yihan's); Organize variables and scripts to correspond to conditions and studies</t>
+  </si>
+  <si>
+    <t>Critical feedback on previous day's work: 1. Please revise scale according to this example  https://wkwsci.co1.qualtrics.com/jfe/form/SV_eP3DmZu9T34ChqB
+2. Change visual advisor to “your personal financial advisor”
+3. Stage 0: both of Study and Conditions need to be highlighted</t>
   </si>
 </sst>
 </file>
@@ -579,6 +584,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,15 +641,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -626,27 +652,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,7 +936,7 @@
   <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,22 +961,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -983,51 +988,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="91"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="240" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45078</v>
       </c>
@@ -1233,9 +1238,11 @@
       </c>
       <c r="O7" s="50"/>
       <c r="P7" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="51"/>
+        <v>62</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1327,25 +1334,25 @@
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="84"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="85"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1360,25 +1367,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="84"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="85"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1390,45 +1397,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="90" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="90"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1555,9 +1562,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3182,15 +3189,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3203,6 +3201,15 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>Stella</t>
   </si>
@@ -584,6 +584,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,54 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,22 +961,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="79" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -988,51 +988,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="88"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="75"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1187,9 @@
       <c r="L6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="55" t="s">
+        <v>40</v>
+      </c>
       <c r="N6" s="42" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1238,9 @@
       <c r="N7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="50"/>
+      <c r="O7" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="P7" s="44" t="s">
         <v>62</v>
       </c>
@@ -1279,7 +1283,9 @@
       <c r="N8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="50"/>
+      <c r="O8" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="P8" s="44" t="s">
         <v>25</v>
       </c>
@@ -1322,7 +1328,9 @@
       <c r="N9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="50"/>
+      <c r="O9" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="P9" s="44" t="s">
         <v>25</v>
       </c>
@@ -1334,25 +1342,25 @@
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="92"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1367,25 +1375,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="90" t="s">
+      <c r="H11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="91"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="92"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1397,45 +1405,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="74" t="s">
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="74"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1562,9 +1570,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3189,6 +3197,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3201,15 +3218,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>Stella</t>
   </si>
@@ -584,6 +584,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,15 +641,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -631,27 +652,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,7 +936,7 @@
   <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,22 +961,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -988,51 +988,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="91"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1180,7 +1180,9 @@
       <c r="I6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="53" t="s">
+        <v>40</v>
+      </c>
       <c r="K6" s="30" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1222,9 @@
       <c r="F7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="64" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="20" t="s">
         <v>59</v>
       </c>
@@ -1234,7 +1238,9 @@
       <c r="L7" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="55" t="s">
+        <v>40</v>
+      </c>
       <c r="N7" s="42" t="s">
         <v>26</v>
       </c>
@@ -1279,7 +1285,9 @@
       <c r="L8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="55" t="s">
+        <v>40</v>
+      </c>
       <c r="N8" s="42" t="s">
         <v>25</v>
       </c>
@@ -1342,25 +1350,25 @@
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="84"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="85"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1375,25 +1383,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="84"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="85"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1405,45 +1413,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="90" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="90"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1570,9 +1578,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3197,15 +3205,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3218,6 +3217,15 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>Stella</t>
   </si>
@@ -220,6 +220,11 @@
     <t>Critical feedback on previous day's work: 1. Please revise scale according to this example  https://wkwsci.co1.qualtrics.com/jfe/form/SV_eP3DmZu9T34ChqB
 2. Change visual advisor to “your personal financial advisor”
 3. Stage 0: both of Study and Conditions need to be highlighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on unfinished parts of previous days
+1. Prepare for the online version of the experiment (using automatic randomization process)
+2. Create a separte link for the online version </t>
   </si>
 </sst>
 </file>
@@ -584,6 +589,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,54 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,22 +966,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="79" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -988,51 +993,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="88"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="75"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1346,29 +1351,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="92"/>
+      <c r="K10" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="85"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1383,25 +1388,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="90" t="s">
+      <c r="H11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="91"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="92"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1413,45 +1418,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="74" t="s">
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="74"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1578,9 +1583,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3205,6 +3210,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3217,15 +3231,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>Stella</t>
   </si>
@@ -225,6 +225,10 @@
     <t xml:space="preserve">Work on unfinished parts of previous days
 1. Prepare for the online version of the experiment (using automatic randomization process)
 2. Create a separte link for the online version </t>
+  </si>
+  <si>
+    <t>Work on unfinished parts of previous days
+1. Make the conversation bar scollable</t>
   </si>
 </sst>
 </file>
@@ -589,6 +593,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,15 +650,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -636,27 +661,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,22 +970,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="70" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -993,51 +997,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="91"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1355,25 +1359,25 @@
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="84"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="85"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1388,25 +1392,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="84"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="85"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1418,45 +1422,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="90" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="90"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1583,9 +1587,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3210,15 +3214,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3231,6 +3226,15 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRD/Concrete timeline_15.06.18.xlsx
+++ b/PRD/Concrete timeline_15.06.18.xlsx
@@ -593,6 +593,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,54 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,22 +970,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="79" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="38" t="s">
         <v>10</v>
       </c>
@@ -997,51 +997,51 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="88"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="75"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1359,25 +1359,25 @@
       <c r="A10" s="3">
         <v>46174</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="92"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="57"/>
       <c r="N10" s="42" t="s">
         <v>27</v>
@@ -1392,25 +1392,25 @@
       <c r="A11" s="3">
         <v>46539</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="90" t="s">
+      <c r="H11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="91"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="92"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="57"/>
       <c r="N11" s="42" t="s">
         <v>28</v>
@@ -1422,45 +1422,45 @@
       <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="63"/>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="74" t="s">
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="74"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="10"/>
       <c r="N13" s="39" t="s">
         <v>39</v>
@@ -1587,9 +1587,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="66"/>
       <c r="L17" s="40"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3214,6 +3214,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3226,15 +3235,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
